--- a/shot.xlsx
+++ b/shot.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB70A86-782C-4F5E-B135-3087F9EFE152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{919B79A2-12B6-4CA3-9690-2C54803275A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{8EED85B7-225D-4B70-8BD6-BA4AF159CE77}"/>
+    <workbookView xWindow="4065" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{9B1CA11F-EE85-4E86-AB6D-D20DE9DE351F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shot" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,6 +54,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ShotCoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissShotPenalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,39 +74,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 조준 거리 (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 조준 시간(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissShotPenaltyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오인 사격 후 이동 불가 시간(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shot_rule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KillCoolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격발 없이 조준 해제 후 다음 조준 활성화까지의 시간(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사격 후 다음 조준 활성화까지의 시간(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사격유무에 따라 쿨타임을 다르게 설정하였습니다.</t>
+    <t>조준 범위 (m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 조준 유지 시간 (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조준 해제 후 다음 조준 활성화 시간 (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 후 다음 조준 활성화 시간 (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오인 사격 시 이동 불가 시간 (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 유무에 따라 조준 쿨타임을 다르게 설정하였습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,12 +151,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,90 +497,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04160105-3080-4446-A2C6-302FE749EA10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FFCA85-47F5-4B7B-8DE3-7D9037B435E6}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>5</v>
@@ -594,7 +594,7 @@
       <c r="F4" s="1">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/shot.xlsx
+++ b/shot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{919B79A2-12B6-4CA3-9690-2C54803275A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46CB9B1-FBC0-4E53-8280-11FD02176114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{9B1CA11F-EE85-4E86-AB6D-D20DE9DE351F}"/>
+    <workbookView xWindow="3720" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{9B1CA11F-EE85-4E86-AB6D-D20DE9DE351F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>사격 유무에 따라 조준 쿨타임을 다르게 설정하였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,12 +145,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -151,18 +174,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +527,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -513,88 +539,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/shot.xlsx
+++ b/shot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46CB9B1-FBC0-4E53-8280-11FD02176114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB046A-5C3E-4BFF-A19D-C7055EAB3AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{9B1CA11F-EE85-4E86-AB6D-D20DE9DE351F}"/>
+    <workbookView xWindow="2025" yWindow="2550" windowWidth="25620" windowHeight="11385" xr2:uid="{9B1CA11F-EE85-4E86-AB6D-D20DE9DE351F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxAimingTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AimCoolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShotCoolTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,22 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 조준 유지 시간 (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조준 해제 후 다음 조준 활성화 시간 (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사격 후 다음 조준 활성화 시간 (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오인 사격 시 이동 불가 시간 (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사격 유무에 따라 조준 쿨타임을 다르게 설정하였습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +83,30 @@
   </si>
   <si>
     <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오인 사격 시 달리기 금지 시간 (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReloadTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전 시간 (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검문 해제 후 다음 검문 활성화 시간 (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격 후 다음 검문 활성화 시간 (s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InspectCoolTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,15 +527,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="21.375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="33" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="1" customWidth="1"/>
+    <col min="5" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -546,88 +548,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
       </c>
       <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
         <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>20</v>
       </c>
       <c r="F4" s="3">
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/shot.xlsx
+++ b/shot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB046A-5C3E-4BFF-A19D-C7055EAB3AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7683F-171E-4978-9743-634214081083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="2550" windowWidth="25620" windowHeight="11385" xr2:uid="{9B1CA11F-EE85-4E86-AB6D-D20DE9DE351F}"/>
+    <workbookView xWindow="1050" yWindow="540" windowWidth="25620" windowHeight="11385" xr2:uid="{9B1CA11F-EE85-4E86-AB6D-D20DE9DE351F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사격 유무에 따라 조준 쿨타임을 다르게 설정하였습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,10 @@
   </si>
   <si>
     <t>InspectCoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Set a different delay time for when the police shoot </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +527,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,10 +548,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -565,25 +565,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/shot.xlsx
+++ b/shot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7683F-171E-4978-9743-634214081083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FE1850-E2B1-494C-AEB8-29C7A5ED3E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="540" windowWidth="25620" windowHeight="11385" xr2:uid="{9B1CA11F-EE85-4E86-AB6D-D20DE9DE351F}"/>
+    <workbookView xWindow="5025" yWindow="2055" windowWidth="21345" windowHeight="15435" xr2:uid="{9B1CA11F-EE85-4E86-AB6D-D20DE9DE351F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
